--- a/Team-Data/2020-21/1-8-2020-21.xlsx
+++ b/Team-Data/2020-21/1-8-2020-21.xlsx
@@ -1766,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="AS7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
@@ -2234,16 +2234,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T10" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U10" t="n">
         <v>23.9</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W10" t="n">
         <v>8.199999999999999</v>
